--- a/testy.xlsx
+++ b/testy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliwia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99332097-D425-492C-ACD4-D38245BBA4CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07470AA2-87AB-41A5-BCA8-910FC482E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4BF0E8DC-698C-432C-A8EB-80CC2D9F0C75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
   <si>
     <t>ID</t>
   </si>
@@ -159,9 +159,6 @@
   </si>
   <si>
     <t>Dane użytkownika zostają zaktualizowane</t>
-  </si>
-  <si>
-    <t>??????????????</t>
   </si>
   <si>
     <t>1. Uruchom formularz
@@ -634,6 +631,12 @@
   </si>
   <si>
     <t>Podgląd danych</t>
+  </si>
+  <si>
+    <t>Zmiana danych?</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -715,13 +718,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -1058,8 +1061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB5BD59-EE59-4ABD-8FFA-5FC09734681E}">
   <dimension ref="A1:L54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="30" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1102,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>49</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
@@ -1125,25 +1128,25 @@
         <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>41</v>
+        <v>189</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>23</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="6" t="s">
-        <v>54</v>
-      </c>
       <c r="L2" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1155,16 +1158,16 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1176,16 +1179,16 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1197,16 +1200,16 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="I5" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1218,16 +1221,16 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1239,16 +1242,16 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1260,16 +1263,16 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1281,16 +1284,16 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1302,16 +1305,16 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1323,16 +1326,16 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1344,16 +1347,16 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1365,16 +1368,16 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1386,16 +1389,16 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L14" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="L14" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1407,16 +1410,16 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K15" s="3">
         <v>98020210105</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1428,10 +1431,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K16" s="3">
         <v>90010102025</v>
@@ -1449,13 +1452,13 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L17" s="7">
         <v>36558</v>
@@ -1470,16 +1473,16 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K18" s="3">
         <v>90010102025</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1491,16 +1494,16 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K19" s="3">
         <v>90010102018</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
@@ -1512,16 +1515,16 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="I20" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>99</v>
+        <v>138</v>
+      </c>
+      <c r="J20" s="11" t="s">
+        <v>98</v>
       </c>
       <c r="K20" s="3">
         <v>90010102018</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1533,14 +1536,14 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J21" s="9"/>
+        <v>139</v>
+      </c>
+      <c r="J21" s="11"/>
       <c r="K21" s="3">
         <v>90010102018</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1552,16 +1555,16 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>100</v>
+        <v>140</v>
+      </c>
+      <c r="J22" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1573,14 +1576,14 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J23" s="9"/>
+        <v>141</v>
+      </c>
+      <c r="J23" s="11"/>
       <c r="K23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1592,16 +1595,16 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J24" s="9" t="s">
-        <v>101</v>
+        <v>142</v>
+      </c>
+      <c r="J24" s="11" t="s">
+        <v>100</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1613,14 +1616,14 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J25" s="9"/>
+        <v>143</v>
+      </c>
+      <c r="J25" s="11"/>
       <c r="K25" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -1632,16 +1635,16 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="I26" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1653,16 +1656,16 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J27" s="9" t="s">
-        <v>103</v>
+        <v>145</v>
+      </c>
+      <c r="J27" s="11" t="s">
+        <v>102</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1674,14 +1677,14 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J28" s="9"/>
+        <v>146</v>
+      </c>
+      <c r="J28" s="11"/>
       <c r="K28" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
@@ -1693,16 +1696,16 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J29" s="9" t="s">
-        <v>104</v>
+        <v>147</v>
+      </c>
+      <c r="J29" s="11" t="s">
+        <v>103</v>
       </c>
       <c r="K29" s="3">
         <v>111222333</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1714,14 +1717,14 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J30" s="9"/>
+        <v>148</v>
+      </c>
+      <c r="J30" s="11"/>
       <c r="K30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>80</v>
-      </c>
-      <c r="L30" s="6" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
@@ -1744,7 +1747,7 @@
         <v>40</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" s="6"/>
     </row>
@@ -1757,13 +1760,13 @@
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="I32" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1775,13 +1778,13 @@
       <c r="F33" s="2"/>
       <c r="G33" s="3"/>
       <c r="I33" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1793,13 +1796,13 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="I34" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1811,13 +1814,13 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="I35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1829,13 +1832,13 @@
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="I36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L36" s="10" t="s">
-        <v>121</v>
+        <v>108</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -1847,13 +1850,13 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="I37" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L37" s="1" t="s">
-        <v>121</v>
+        <v>109</v>
+      </c>
+      <c r="L37" s="9" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1865,13 +1868,13 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="I38" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="L38" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1883,13 +1886,13 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="I39" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1901,13 +1904,13 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="I40" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -1919,13 +1922,13 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="I41" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="L41" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1937,13 +1940,13 @@
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
       <c r="I42" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1955,13 +1958,13 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="I43" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1973,13 +1976,13 @@
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="I44" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -1991,13 +1994,13 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="I45" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="L45" s="10" t="s">
-        <v>121</v>
+        <v>117</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
@@ -2009,13 +2012,13 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="L46" s="10" t="s">
-        <v>121</v>
+        <v>118</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -2038,9 +2041,9 @@
         <v>39</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="H47" s="11"/>
+        <v>42</v>
+      </c>
+      <c r="H47" s="10"/>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
@@ -2063,19 +2066,19 @@
         <v>38</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J48" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L48" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2087,16 +2090,16 @@
       <c r="F49" s="2"/>
       <c r="G49" s="3"/>
       <c r="I49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="K49" s="3">
         <v>98020210105</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2108,16 +2111,16 @@
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
       <c r="I50" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
@@ -2129,16 +2132,16 @@
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
       <c r="I51" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
@@ -2161,19 +2164,19 @@
         <v>37</v>
       </c>
       <c r="G52" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I52" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J52" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="L52" s="3" t="s">
         <v>184</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>179</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
@@ -2184,7 +2187,7 @@
         <v>13</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>22</v>
@@ -2196,19 +2199,19 @@
         <v>36</v>
       </c>
       <c r="G53" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I53" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="K53" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="J53" s="6" t="s">
-        <v>178</v>
-      </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>182</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="144" x14ac:dyDescent="0.3">
@@ -2231,19 +2234,19 @@
         <v>35</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I54" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="J54" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="K54" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="L54" s="3" t="s">
         <v>187</v>
-      </c>
-      <c r="K54" s="3" t="s">
-        <v>182</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/testy.xlsx
+++ b/testy.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliwia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07470AA2-87AB-41A5-BCA8-910FC482E7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C8C8F-559E-4408-AE83-92B3C8B17176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4BF0E8DC-698C-432C-A8EB-80CC2D9F0C75}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
   <si>
     <t>ID</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>Wyszukiwanie zapomnianych użytkowników</t>
-  </si>
-  <si>
-    <t>Podgląd danych użytkownika</t>
   </si>
   <si>
     <t>usr_2</t>
@@ -164,16 +161,6 @@
     <t>1. Uruchom formularz
 2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
 3. Kliknij "Wyszukaj"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Uruchom formularz
-2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
-3. Kliknij "Wyszukaj"         4. Sprawdź wyświetlane dane </t>
-  </si>
-  <si>
-    <t>1. Uruchom formularz
-2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
-3. Kliknij "Wyszukaj"        4. Kliknij "Podgląd"          5. Kliknij "Zapomnij"</t>
   </si>
   <si>
     <t xml:space="preserve">1. Uruchom formularz
@@ -202,14 +189,6 @@
   </si>
   <si>
     <t>OCZEKIWANY REZULTAT</t>
-  </si>
-  <si>
-    <t>usr_1.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Uruchom formularz
-2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
-3. Kliknij "Wyszukaj"        4. Kliknij "Podgląd"          5. Kliknij "Zapomnij"      6. Sprawdź wyświetlane dane </t>
   </si>
   <si>
     <t>Dodanie użytkownika z poprawnymi danymi.</t>
@@ -354,9 +333,6 @@
     <t>Poprawność daty urodzenia wzgędem nr pesel przed 2000r. - sprawdzenie</t>
   </si>
   <si>
-    <t>Poprawność daty urodzenia wzgędem nr pesel od 2000r. - sprawdzenie</t>
-  </si>
-  <si>
     <t>Przedostatnia cyfra nr pesel u kobiet (0 + parzyste) - sprawdzenie</t>
   </si>
   <si>
@@ -432,147 +408,6 @@
     <t>Brak możliwości zmiany danych</t>
   </si>
   <si>
-    <t>usr_1.2</t>
-  </si>
-  <si>
-    <t>usr_1.3</t>
-  </si>
-  <si>
-    <t>usr_1.4</t>
-  </si>
-  <si>
-    <t>usr_1.5</t>
-  </si>
-  <si>
-    <t>usr_1.6</t>
-  </si>
-  <si>
-    <t>usr_1.7</t>
-  </si>
-  <si>
-    <t>usr_1.8</t>
-  </si>
-  <si>
-    <t>usr_1.9</t>
-  </si>
-  <si>
-    <t>usr_1.10</t>
-  </si>
-  <si>
-    <t>usr_1.11</t>
-  </si>
-  <si>
-    <t>usr_1.12</t>
-  </si>
-  <si>
-    <t>usr_1.13</t>
-  </si>
-  <si>
-    <t>usr_1.14</t>
-  </si>
-  <si>
-    <t>usr_1.15</t>
-  </si>
-  <si>
-    <t>usr_1.16</t>
-  </si>
-  <si>
-    <t>usr_1.17.1</t>
-  </si>
-  <si>
-    <t>usr_1.17.2</t>
-  </si>
-  <si>
-    <t>usr_1.18.1</t>
-  </si>
-  <si>
-    <t>usr_1.18.2</t>
-  </si>
-  <si>
-    <t>usr_1.19.1</t>
-  </si>
-  <si>
-    <t>usr_1.19.2</t>
-  </si>
-  <si>
-    <t>usr_1.20.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> usr_1.20.2</t>
-  </si>
-  <si>
-    <t>usr_1.21</t>
-  </si>
-  <si>
-    <t>usr_1.22.1</t>
-  </si>
-  <si>
-    <t>usr_1.22.2</t>
-  </si>
-  <si>
-    <t>usr_1.23.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> usr_1.23.2</t>
-  </si>
-  <si>
-    <t>usr_2.1</t>
-  </si>
-  <si>
-    <t>usr_2.2</t>
-  </si>
-  <si>
-    <t>usr_2.3</t>
-  </si>
-  <si>
-    <t>usr_2.4</t>
-  </si>
-  <si>
-    <t>usr_2.5</t>
-  </si>
-  <si>
-    <t>usr_2.6</t>
-  </si>
-  <si>
-    <t>usr_2.7</t>
-  </si>
-  <si>
-    <t>usr_2.8</t>
-  </si>
-  <si>
-    <t>usr_2.9</t>
-  </si>
-  <si>
-    <t>usr_2.10</t>
-  </si>
-  <si>
-    <t>usr_2.11</t>
-  </si>
-  <si>
-    <t>usr_2.12</t>
-  </si>
-  <si>
-    <t>usr_2.13</t>
-  </si>
-  <si>
-    <t>usr_2.14</t>
-  </si>
-  <si>
-    <t>usr_2.15</t>
-  </si>
-  <si>
-    <t>usr_4.1</t>
-  </si>
-  <si>
-    <t>usr_4.2</t>
-  </si>
-  <si>
-    <t>usr_4.3</t>
-  </si>
-  <si>
-    <t>usr_4.4</t>
-  </si>
-  <si>
     <t>Wyszukiwanie użytkowanika po nr pesel</t>
   </si>
   <si>
@@ -597,9 +432,6 @@
     <t>Kowalska</t>
   </si>
   <si>
-    <t>usr_5.1</t>
-  </si>
-  <si>
     <t>Sprawdzenie czy użytkownik został zapomniany</t>
   </si>
   <si>
@@ -609,9 +441,6 @@
     <t>Weryfikacja czy można znaleźć użytkowników oznaczonych jako zapomnieni</t>
   </si>
   <si>
-    <t>usr_6.1</t>
-  </si>
-  <si>
     <t xml:space="preserve">Wyszukanie:  98020210105 </t>
   </si>
   <si>
@@ -624,19 +453,207 @@
     <t>Potwierdzenie wykonania procedury</t>
   </si>
   <si>
-    <t>usr_7.1</t>
-  </si>
-  <si>
     <t>Sprawdzenie czy istnieje możliwość podglądu danych</t>
   </si>
   <si>
-    <t>Podgląd danych</t>
-  </si>
-  <si>
     <t>Zmiana danych?</t>
   </si>
   <si>
-    <t>???</t>
+    <t>Posiadanie dostępu do programu</t>
+  </si>
+  <si>
+    <t>UWAGI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
+3. Kliknij "Wyszukaj"        4. Kliknij "Podgląd"          5. Kliknij "Zapomnij"         6. Sprawdź wyświetlane dane </t>
+  </si>
+  <si>
+    <t>Usr_1_16_2</t>
+  </si>
+  <si>
+    <t>Usr_1_1</t>
+  </si>
+  <si>
+    <t>Usr_1_2</t>
+  </si>
+  <si>
+    <t>Usr_1_3</t>
+  </si>
+  <si>
+    <t>Usr_1_4</t>
+  </si>
+  <si>
+    <t>Usr_1_5</t>
+  </si>
+  <si>
+    <t>Usr_1_6</t>
+  </si>
+  <si>
+    <t>Usr_1_7</t>
+  </si>
+  <si>
+    <t>Usr_1_8</t>
+  </si>
+  <si>
+    <t>Usr_1_9</t>
+  </si>
+  <si>
+    <t>Usr_1_10</t>
+  </si>
+  <si>
+    <t>Usr_1_11</t>
+  </si>
+  <si>
+    <t>Usr_1_12</t>
+  </si>
+  <si>
+    <t>Usr_1_13</t>
+  </si>
+  <si>
+    <t>Usr_1_14</t>
+  </si>
+  <si>
+    <t>Usr_1_15</t>
+  </si>
+  <si>
+    <t>Usr_1_16_1</t>
+  </si>
+  <si>
+    <t>Usr_1_17_1</t>
+  </si>
+  <si>
+    <t>Usr_1_17_2</t>
+  </si>
+  <si>
+    <t>Usr_1_18_1</t>
+  </si>
+  <si>
+    <t>Usr_1_18_2</t>
+  </si>
+  <si>
+    <t>Usr_1_19_1</t>
+  </si>
+  <si>
+    <t>Usr_1_19_2</t>
+  </si>
+  <si>
+    <t>Usr_1_20_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usr_1_20_2</t>
+  </si>
+  <si>
+    <t>Usr_1_21</t>
+  </si>
+  <si>
+    <t>Usr_1_22_1</t>
+  </si>
+  <si>
+    <t>Usr_1_22_2</t>
+  </si>
+  <si>
+    <t>Usr_1_23_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Usr_1_23_2</t>
+  </si>
+  <si>
+    <t>Usr_2_1</t>
+  </si>
+  <si>
+    <t>Usr_2_2</t>
+  </si>
+  <si>
+    <t>Usr_2_3</t>
+  </si>
+  <si>
+    <t>Usr_2_4</t>
+  </si>
+  <si>
+    <t>Usr_2_5</t>
+  </si>
+  <si>
+    <t>Usr_2_6</t>
+  </si>
+  <si>
+    <t>Usr_2_7</t>
+  </si>
+  <si>
+    <t>Usr_2_8</t>
+  </si>
+  <si>
+    <t>Usr_2_9</t>
+  </si>
+  <si>
+    <t>Usr_2_10</t>
+  </si>
+  <si>
+    <t>Usr_2_11</t>
+  </si>
+  <si>
+    <t>Usr_2_12</t>
+  </si>
+  <si>
+    <t>Usr_2_13</t>
+  </si>
+  <si>
+    <t>Usr_2_14</t>
+  </si>
+  <si>
+    <t>Usr_2_15</t>
+  </si>
+  <si>
+    <t>Usr_4_1</t>
+  </si>
+  <si>
+    <t>Usr_4_2</t>
+  </si>
+  <si>
+    <t>Usr_4_3</t>
+  </si>
+  <si>
+    <t>Usr_4_4</t>
+  </si>
+  <si>
+    <t>Usr_5_1</t>
+  </si>
+  <si>
+    <t>Usr_6_1</t>
+  </si>
+  <si>
+    <t>Usr_7_1</t>
+  </si>
+  <si>
+    <t>00020255508</t>
+  </si>
+  <si>
+    <t>Zgodność daty urodzenia wzgędem nr pesel od 2000r. - sprawdzenie</t>
+  </si>
+  <si>
+    <t>Niezgodność daty urodzenia wzgędem nr pesel od 2000r. - sprawdzenie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STATUS </t>
+  </si>
+  <si>
+    <t>Podgląd danych użytkownika zapomnianego użytkownika</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+</t>
+  </si>
+  <si>
+    <t>1. Uruchom formularz
+2. Wprowadź dane użytkownika użytkownika (PSESL, login, imię i nazwisko)
+3. Kliknij "Wyszukaj"         4. Kliknij "Podgląd"                  5. Kliknij "Zapomnij"          6. Zatwierdź</t>
+  </si>
+  <si>
+    <t>Brak podglądu danych</t>
   </si>
 </sst>
 </file>
@@ -694,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -723,7 +740,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+      <extLst>
+        <ext xmlns:xfpb="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag" uri="{C7286773-470A-42A8-94C5-96B5CB345126}">
+          <xfpb:xfComplement i="0"/>
+        </ext>
+      </extLst>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -740,6 +768,23 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/featurePropertyBag/featurePropertyBag.xml><?xml version="1.0" encoding="utf-8"?>
+<FeaturePropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2022/featurepropertybag">
+  <bag type="Checkbox"/>
+  <bag type="XFControls">
+    <bagId k="CellControl">0</bagId>
+  </bag>
+  <bag type="XFComplement">
+    <bagId k="XFControls">1</bagId>
+  </bag>
+  <bag type="XFComplements" extRef="XFComplementsMapperExtRef">
+    <a k="MappedFeaturePropertyBags">
+      <bagId>2</bagId>
+    </a>
+  </bag>
+</FeaturePropertyBags>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1059,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB5BD59-EE59-4ABD-8FFA-5FC09734681E}">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:O55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="65" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="F118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R53" sqref="R53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1077,9 +1122,10 @@
     <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1105,16 +1151,22 @@
         <v>0</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="244.8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="244.8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -1122,34 +1174,37 @@
         <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I2" s="6" t="s">
-        <v>50</v>
+        <v>136</v>
       </c>
       <c r="J2" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="K2" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N2" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -1158,19 +1213,22 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
       <c r="I3" s="6" t="s">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="K3" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N3" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -1179,19 +1237,22 @@
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="I4" s="6" t="s">
-        <v>122</v>
+        <v>138</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N4" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -1200,19 +1261,22 @@
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="I5" s="6" t="s">
-        <v>123</v>
+        <v>139</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N5" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -1221,19 +1285,22 @@
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="6" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="J6" s="6" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N6" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -1242,19 +1309,22 @@
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
       <c r="I7" s="6" t="s">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="J7" s="6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N7" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1263,19 +1333,22 @@
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
       <c r="I8" s="6" t="s">
-        <v>126</v>
+        <v>142</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N8" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -1284,19 +1357,22 @@
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
       <c r="I9" s="6" t="s">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N9" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1305,19 +1381,22 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="I10" s="6" t="s">
-        <v>128</v>
+        <v>144</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N10" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1326,19 +1405,22 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="I11" s="6" t="s">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N11" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1347,19 +1429,22 @@
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
       <c r="I12" s="6" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N12" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1368,19 +1453,22 @@
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
       <c r="I13" s="6" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="N13" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
@@ -1389,19 +1477,22 @@
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
       <c r="I14" s="6" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N14" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -1410,19 +1501,22 @@
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
       <c r="I15" s="6" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K15" s="3">
         <v>98020210105</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="N15" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
@@ -1431,10 +1525,10 @@
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
       <c r="I16" s="6" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="K16" s="3">
         <v>90010102025</v>
@@ -1442,8 +1536,14 @@
       <c r="L16" s="7">
         <v>32874</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N16" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
@@ -1452,19 +1552,25 @@
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
       <c r="I17" s="6" t="s">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L17" s="7">
         <v>36558</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="N17" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -1473,19 +1579,25 @@
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
       <c r="I18" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J18" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="K18" s="3">
-        <v>90010102025</v>
-      </c>
-      <c r="L18" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L18" s="7">
+        <v>36559</v>
+      </c>
+      <c r="N18" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -1494,19 +1606,25 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="I19" s="6" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="J19" s="6" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="K19" s="3">
-        <v>90010102018</v>
+        <v>90010102025</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="N19" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -1515,19 +1633,25 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
       <c r="I20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="J20" s="11" t="s">
-        <v>98</v>
+        <v>153</v>
+      </c>
+      <c r="J20" s="6" t="s">
+        <v>91</v>
       </c>
       <c r="K20" s="3">
         <v>90010102018</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="N20" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1536,17 +1660,25 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="I21" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="J21" s="11"/>
+        <v>154</v>
+      </c>
+      <c r="J21" s="12" t="s">
+        <v>92</v>
+      </c>
       <c r="K21" s="3">
         <v>90010102018</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1555,19 +1687,23 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="I22" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="J22" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>75</v>
+        <v>155</v>
+      </c>
+      <c r="J22" s="12"/>
+      <c r="K22" s="3">
+        <v>90010102018</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="N22" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
@@ -1576,17 +1712,22 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="I23" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="J23" s="11"/>
+        <v>156</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>93</v>
+      </c>
       <c r="K23" s="6" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N23" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
@@ -1595,19 +1736,20 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="I24" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>100</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="J24" s="12"/>
       <c r="K24" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="N24" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
@@ -1616,17 +1758,22 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="I25" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="J25" s="11"/>
+        <v>158</v>
+      </c>
+      <c r="J25" s="12" t="s">
+        <v>94</v>
+      </c>
       <c r="K25" s="6" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N25" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -1635,19 +1782,20 @@
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
       <c r="I26" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="3" t="s">
-        <v>101</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="J26" s="12"/>
       <c r="K26" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="N26" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
@@ -1656,19 +1804,22 @@
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
       <c r="I27" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>102</v>
+        <v>160</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N27" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="5"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
@@ -1677,17 +1828,22 @@
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
       <c r="I28" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="J28" s="11"/>
+        <v>161</v>
+      </c>
+      <c r="J28" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K28" s="6" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="N28" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
@@ -1696,19 +1852,20 @@
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
       <c r="I29" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="K29" s="3">
-        <v>111222333</v>
+        <v>162</v>
+      </c>
+      <c r="J29" s="12"/>
+      <c r="K29" s="6" t="s">
+        <v>70</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="N29" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1717,77 +1874,92 @@
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="I30" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="J30" s="11"/>
-      <c r="K30" s="6" t="s">
-        <v>79</v>
+        <v>163</v>
+      </c>
+      <c r="J30" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="K30" s="3">
+        <v>111222333</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="I31" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="J31" s="12"/>
+      <c r="K31" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L31" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N31" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="I32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I32" s="6"/>
+      <c r="N32" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="I33" s="6" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N33" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1796,16 +1968,19 @@
       <c r="F34" s="2"/>
       <c r="G34" s="3"/>
       <c r="I34" s="6" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N34" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1814,16 +1989,19 @@
       <c r="F35" s="2"/>
       <c r="G35" s="3"/>
       <c r="I35" s="6" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N35" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1832,16 +2010,19 @@
       <c r="F36" s="2"/>
       <c r="G36" s="3"/>
       <c r="I36" s="6" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N36" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1850,16 +2031,22 @@
       <c r="F37" s="2"/>
       <c r="G37" s="3"/>
       <c r="I37" s="6" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="L37" s="9" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>102</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="N37" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1868,16 +2055,22 @@
       <c r="F38" s="2"/>
       <c r="G38" s="3"/>
       <c r="I38" s="6" t="s">
-        <v>155</v>
+        <v>170</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="L38" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>103</v>
+      </c>
+      <c r="L38" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="N38" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1886,16 +2079,19 @@
       <c r="F39" s="2"/>
       <c r="G39" s="3"/>
       <c r="I39" s="6" t="s">
-        <v>156</v>
+        <v>171</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="L39" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N39" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1904,16 +2100,19 @@
       <c r="F40" s="2"/>
       <c r="G40" s="3"/>
       <c r="I40" s="6" t="s">
-        <v>157</v>
+        <v>172</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="L40" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N40" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1922,16 +2121,19 @@
       <c r="F41" s="2"/>
       <c r="G41" s="3"/>
       <c r="I41" s="6" t="s">
-        <v>158</v>
+        <v>173</v>
       </c>
       <c r="J41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="L41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="L41" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N41" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1940,16 +2142,19 @@
       <c r="F42" s="2"/>
       <c r="G42" s="3"/>
       <c r="I42" s="6" t="s">
-        <v>159</v>
+        <v>174</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="L42" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N42" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1958,16 +2163,19 @@
       <c r="F43" s="2"/>
       <c r="G43" s="3"/>
       <c r="I43" s="6" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="L43" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N43" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1976,16 +2184,19 @@
       <c r="F44" s="2"/>
       <c r="G44" s="3"/>
       <c r="I44" s="6" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="L44" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N44" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1994,16 +2205,19 @@
       <c r="F45" s="2"/>
       <c r="G45" s="3"/>
       <c r="I45" s="6" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="L45" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+      <c r="N45" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -2012,97 +2226,108 @@
       <c r="F46" s="2"/>
       <c r="G46" s="3"/>
       <c r="I46" s="6" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="L46" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="N46" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="G47" s="3"/>
+      <c r="I47" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="L47" s="9" t="s">
+        <v>131</v>
+      </c>
+      <c r="N47" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="H48" s="10"/>
+      <c r="I48" s="6"/>
+      <c r="N48" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="B49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D47" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="2" t="s">
+      <c r="D49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F47" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H47" s="10"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="I48" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="J48" s="6" t="s">
-        <v>169</v>
-      </c>
-      <c r="K48" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="3"/>
-      <c r="I49" t="s">
-        <v>165</v>
+      <c r="F49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>180</v>
       </c>
       <c r="J49" s="6" t="s">
-        <v>168</v>
-      </c>
-      <c r="K49" s="3">
-        <v>98020210105</v>
+        <v>116</v>
+      </c>
+      <c r="K49" s="3" t="s">
+        <v>62</v>
       </c>
       <c r="L49" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="N49" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2110,20 +2335,23 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="3"/>
-      <c r="I50" s="2" t="s">
-        <v>166</v>
+      <c r="I50" t="s">
+        <v>181</v>
       </c>
       <c r="J50" s="6" t="s">
-        <v>170</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>174</v>
+        <v>115</v>
+      </c>
+      <c r="K50" s="3">
+        <v>98020210105</v>
       </c>
       <c r="L50" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+      <c r="N50" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2131,131 +2359,167 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="3"/>
-      <c r="I51" t="s">
-        <v>167</v>
+      <c r="I51" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="J51" s="6" t="s">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="L51" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N51" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="3"/>
+      <c r="I52" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="K52" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="N52" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="I53" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="J53" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="K53" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="N53" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F52" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="I52" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="J52" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="B54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G53" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I53" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="J53" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="K53" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" ht="144" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C54" s="2" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>35</v>
       </c>
       <c r="G54" s="3" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="I54" s="6" t="s">
         <v>185</v>
       </c>
       <c r="J54" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="K54" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="N54" s="11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G55" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>181</v>
-      </c>
-      <c r="L54" s="3" t="s">
-        <v>187</v>
+      <c r="J55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="K55" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="L55" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="N55" s="11" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="J25:J26"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J30:J31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/testy.xlsx
+++ b/testy.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oliwia\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{944C8C8F-559E-4408-AE83-92B3C8B17176}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DA053B1-1F1F-4B13-9DAC-BE3B1F9AA317}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{4BF0E8DC-698C-432C-A8EB-80CC2D9F0C75}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4BF0E8DC-698C-432C-A8EB-80CC2D9F0C75}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -653,7 +653,218 @@
 3. Kliknij "Wyszukaj"         4. Kliknij "Podgląd"                  5. Kliknij "Zapomnij"          6. Zatwierdź</t>
   </si>
   <si>
-    <t>Brak podglądu danych</t>
+    <t>Zmiana danych z numerem pesel</t>
+  </si>
+  <si>
+    <t>Zmiana danych z płcią</t>
+  </si>
+  <si>
+    <t>Podgląd danych</t>
+  </si>
+  <si>
+    <t>usr_8</t>
+  </si>
+  <si>
+    <t>Przegląd listy uprawnień</t>
+  </si>
+  <si>
+    <t>Nadanie uprawnień użytkownikowi</t>
+  </si>
+  <si>
+    <t>usr_9</t>
+  </si>
+  <si>
+    <t>usr_10</t>
+  </si>
+  <si>
+    <t>Przegład użytkowników o danym uprawnieniu</t>
+  </si>
+  <si>
+    <t>MODUŁ</t>
+  </si>
+  <si>
+    <t>Sprawdzenie jakie są uprawnienia w systemie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyświetlenie listy uprawnień </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+2. Kliknij "uprawnienia"
+</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy w systemie istnieje możliwość nadawania uprawnień użytkownikom</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy użytkownik ma co najmniej jedno uprawnienie (z wyjątkiem użytkowników zapomnianych).</t>
+  </si>
+  <si>
+    <t>Posiadanie dostępu do programu, istnieje przynajmniej jeden użytkownik w systemie</t>
+  </si>
+  <si>
+    <t>Posiadanie dostępu do programu,istnieje możliwość  dodania/edytowania użytkownika</t>
+  </si>
+  <si>
+    <t>Uprawnienie zostaje przypisane do użytkownika</t>
+  </si>
+  <si>
+    <t>Podgląd uprawnień użytkownika</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy istnieje możliwość podglądu listy uprawnień</t>
+  </si>
+  <si>
+    <t>Sprawdzenie mechanizmu nadawania uprawnień</t>
+  </si>
+  <si>
+    <t>Weryfikacja czy użytkownik ma co najmniej jedno uprawnienie (oprócz użytkowników zapomnianych) ;</t>
+  </si>
+  <si>
+    <t>Podgląd listy użytkowników o danym uprawnieniu</t>
+  </si>
+  <si>
+    <t>Usr_8_1</t>
+  </si>
+  <si>
+    <t>Podgląd listy uprawnień</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+2. Kliknij "Dodaj użytkownika"
+3. Wprowadź dane i role
+4. Zapisz                                                                        </t>
+  </si>
+  <si>
+    <t>1. Uruchom formularz
+2. Wpisz dane i wyszukaj użytkownika             3.Kliknij "Edytuj użytkowników"
+4. Zmień role
+5. Zapisz</t>
+  </si>
+  <si>
+    <t>Usr_9_1</t>
+  </si>
+  <si>
+    <t>Usr_9_2</t>
+  </si>
+  <si>
+    <t>Przypisanie uprawnienia do użytkownika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wyszukanie: 95050504291                              Zmiana roli użytkownika --&gt; admin </t>
+  </si>
+  <si>
+    <t>1. Uruchom formularz
+2. Wpisz dane i wyszukaj użytkownika             3.Kliknij "Podgląd"</t>
+  </si>
+  <si>
+    <t>Podląd przypisanej roli</t>
+  </si>
+  <si>
+    <t>Podgląd listy użytkowników</t>
+  </si>
+  <si>
+    <t>1. Uruchom formularz     2. Kliknij "Uprawnienia"      3. Kliknij "Przegląd użytkowników z uprawnieniami"                4.Wybierz rolę</t>
+  </si>
+  <si>
+    <t>Login: jankoo
+Hasło:JanK123!
+Imię: Jan
+Nazwisko: Kowalski
+Pesel: 95050504291
+Data: urodzenia: 05-05-1998
+Email: jan@gmail.com
+Telefon: 111222333
+Miejscowość: Warszawa
+Kod pocztowy: 00-050
+Ulica: Warszawska
+Numer posesji: 1
+Płeć: Mężczyzna
+Rola: Recepcjonista</t>
+  </si>
+  <si>
+    <t>Brak możliwości zapisu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+2. Kliknij "Dodaj użytkownika"
+3. Wprowadź dane bez roli
+4. Zapisz                                                                        </t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy system zezwala na zapis użytkownika bez uprawnień/roli</t>
+  </si>
+  <si>
+    <t>Brak zmian</t>
+  </si>
+  <si>
+    <t>1. Uruchom formularz
+2. Wpisz dane i wyszukaj użytkownika             3.Kliknij "Edytuj użytkowników"
+4.  Nie zmieniaj roli
+5. Zapisz</t>
+  </si>
+  <si>
+    <t>Bez zmian</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy system zezwala na zapis użytkownika bez zmiany uprawnień/roli</t>
+  </si>
+  <si>
+    <t>Brak możliwości zapisu bez uprawnień</t>
+  </si>
+  <si>
+    <t>Sprawdzenie czy system zezwala na zabranie roli użytkownikowi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Uruchom formularz
+2. Wpisz dane i wyszukaj użytkownika             3.Kliknij "Edytuj użytkowników"
+4. Spróbuj usunąć rolę
+</t>
+  </si>
+  <si>
+    <t>Brak możliwości zapisu bez roli</t>
+  </si>
+  <si>
+    <t>Weryfikacja możliwości zapisu bez zmiany roli</t>
+  </si>
+  <si>
+    <t>Test sprawdzający czy istnieje możliwość zabrania roli</t>
+  </si>
+  <si>
+    <t>Weryfikacja możliwości zapisu bez roli</t>
+  </si>
+  <si>
+    <t>Test sprawdzający czy istnieje możliwość przeglądania użytkowników według wybranej roli.</t>
+  </si>
+  <si>
+    <t>System pozwala na wyświetlanie listy użytkowników o wskazanym (1) uprawnieniu</t>
+  </si>
+  <si>
+    <t>System pozwala na wyświetlanie listy użytkowników o wskazanym (2) uprawnieniach</t>
+  </si>
+  <si>
+    <t>System pozwala na wyświetlanie listy użytkowników o wskazanym (3) uprawnieniach</t>
+  </si>
+  <si>
+    <t>Usr_9_3</t>
+  </si>
+  <si>
+    <t>Usr_9_4</t>
+  </si>
+  <si>
+    <t>Usr_9_5</t>
+  </si>
+  <si>
+    <t>Usr_9_6</t>
+  </si>
+  <si>
+    <t>Usr_10_1</t>
+  </si>
+  <si>
+    <t>Usr_10_2</t>
+  </si>
+  <si>
+    <t>Usr_10_3</t>
   </si>
 </sst>
 </file>
@@ -694,7 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -711,7 +922,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -735,10 +946,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
       <extLst>
@@ -748,10 +955,20 @@
       </extLst>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1104,1422 +1321,1785 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB5BD59-EE59-4ABD-8FFA-5FC09734681E}">
-  <dimension ref="A1:O55"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F118" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R53" sqref="R53"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="37.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.88671875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.21875" customWidth="1"/>
-    <col min="10" max="10" width="18.88671875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="67.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="45.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.21875" customWidth="1"/>
+    <col min="11" max="11" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="244.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:16" ht="244.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="13">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="N2" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
+      <c r="O2" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="I3" s="6" t="s">
+      <c r="H3" s="5"/>
+      <c r="J3" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="K3" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="L3" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="M3" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N3" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
+      <c r="O3" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="I4" s="6" t="s">
+      <c r="H4" s="5"/>
+      <c r="J4" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="K4" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="L4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="M4" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N4" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
+      <c r="O4" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="5"/>
+      <c r="J5" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="J5" s="6" t="s">
+      <c r="K5" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="L5" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="6" t="s">
+      <c r="M5" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N5" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
+      <c r="O5" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="I6" s="6" t="s">
+      <c r="H6" s="5"/>
+      <c r="J6" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="K6" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="L6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="M6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
+      <c r="O6" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="5"/>
+      <c r="J7" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="J7" s="6" t="s">
+      <c r="K7" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="K7" s="6" t="s">
+      <c r="L7" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="L7" s="6" t="s">
+      <c r="M7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
+      <c r="O7" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="6" t="s">
+      <c r="H8" s="5"/>
+      <c r="J8" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="J8" s="6" t="s">
+      <c r="K8" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="L8" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="M8" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N8" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
+      <c r="O8" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="I9" s="6" t="s">
+      <c r="H9" s="5"/>
+      <c r="J9" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="J9" s="6" t="s">
+      <c r="K9" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="L9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="M9" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N9" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
+      <c r="O9" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="I10" s="6" t="s">
+      <c r="H10" s="5"/>
+      <c r="J10" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="K10" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="6" t="s">
+      <c r="L10" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="M10" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N10" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="5"/>
+      <c r="O10" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-      <c r="I11" s="6" t="s">
+      <c r="H11" s="5"/>
+      <c r="J11" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="L11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="L11" s="6" t="s">
+      <c r="M11" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N11" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
+      <c r="O11" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
       <c r="F12" s="5"/>
       <c r="G12" s="5"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="5"/>
+      <c r="J12" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="K12" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="K12" s="6" t="s">
+      <c r="L12" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="L12" s="6" t="s">
+      <c r="M12" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N12" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
+      <c r="O12" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5"/>
       <c r="F13" s="5"/>
       <c r="G13" s="5"/>
-      <c r="I13" s="6" t="s">
+      <c r="H13" s="5"/>
+      <c r="J13" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="J13" s="6" t="s">
+      <c r="K13" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="L13" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="M13" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="N13" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
+      <c r="O13" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="5"/>
+      <c r="J14" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="J14" s="6" t="s">
+      <c r="K14" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="L14" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="M14" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N14" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
+      <c r="O14" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-      <c r="I15" s="6" t="s">
+      <c r="H15" s="5"/>
+      <c r="J15" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="J15" s="6" t="s">
+      <c r="K15" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>98020210105</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="M15" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="N15" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
+      <c r="O15" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="5"/>
+      <c r="J16" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="J16" s="6" t="s">
+      <c r="K16" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="3">
+      <c r="L16" s="3">
         <v>90010102025</v>
       </c>
-      <c r="L16" s="7">
+      <c r="M16" s="7">
         <v>32874</v>
       </c>
-      <c r="N16" s="11" t="b">
+      <c r="O16" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O16" s="13" t="s">
+      <c r="P16" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
+    <row r="17" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-      <c r="I17" s="6" t="s">
+      <c r="H17" s="5"/>
+      <c r="J17" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="K17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="K17" s="8" t="s">
+      <c r="L17" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="L17" s="7">
+      <c r="M17" s="7">
         <v>36558</v>
       </c>
-      <c r="N17" s="11" t="b">
+      <c r="O17" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O17" s="13" t="s">
+      <c r="P17" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
+    <row r="18" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="5"/>
+      <c r="J18" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="K18" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="L18" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="L18" s="7">
+      <c r="M18" s="7">
         <v>36559</v>
       </c>
-      <c r="N18" s="11" t="b">
+      <c r="O18" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O18" s="13" t="s">
+      <c r="P18" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
+    <row r="19" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
-      <c r="I19" s="6" t="s">
+      <c r="H19" s="5"/>
+      <c r="J19" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="J19" s="6" t="s">
+      <c r="K19" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="K19" s="3">
+      <c r="L19" s="3">
         <v>90010102025</v>
       </c>
-      <c r="L19" s="6" t="s">
+      <c r="M19" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="N19" s="11" t="b">
+      <c r="O19" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O19" s="13" t="s">
+      <c r="P19" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
+    <row r="20" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-      <c r="I20" s="6" t="s">
+      <c r="H20" s="5"/>
+      <c r="J20" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="J20" s="6" t="s">
+      <c r="K20" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>90010102018</v>
       </c>
-      <c r="L20" s="6" t="s">
+      <c r="M20" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="N20" s="11" t="b">
+      <c r="O20" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O20" s="13" t="s">
+      <c r="P20" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="5"/>
+      <c r="J21" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="J21" s="12" t="s">
+      <c r="K21" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>90010102018</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="M21" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N21" s="11" t="b">
+      <c r="O21" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O21" s="13" t="s">
+      <c r="P21" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
+    <row r="22" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="I22" s="6" t="s">
+      <c r="H22" s="5"/>
+      <c r="J22" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="J22" s="12"/>
-      <c r="K22" s="3">
+      <c r="K22" s="15"/>
+      <c r="L22" s="3">
         <v>90010102018</v>
       </c>
-      <c r="L22" s="6" t="s">
+      <c r="M22" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="N22" s="11" t="b">
+      <c r="O22" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O22" s="13" t="s">
+      <c r="P22" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
+    <row r="23" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="5"/>
+      <c r="J23" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="J23" s="12" t="s">
+      <c r="K23" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="K23" s="6" t="s">
+      <c r="L23" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L23" s="6" t="s">
+      <c r="M23" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N23" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
+      <c r="O23" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
-      <c r="I24" s="6" t="s">
+      <c r="H24" s="5"/>
+      <c r="J24" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="J24" s="12"/>
-      <c r="K24" s="6" t="s">
+      <c r="K24" s="15"/>
+      <c r="L24" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L24" s="6" t="s">
+      <c r="M24" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N24" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
+      <c r="O24" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="5"/>
+      <c r="J25" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="J25" s="12" t="s">
+      <c r="K25" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="K25" s="6" t="s">
+      <c r="L25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L25" s="6" t="s">
+      <c r="M25" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N25" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
+      <c r="O25" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
       <c r="G26" s="5"/>
-      <c r="I26" s="6" t="s">
+      <c r="H26" s="5"/>
+      <c r="J26" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="J26" s="12"/>
-      <c r="K26" s="6" t="s">
+      <c r="K26" s="15"/>
+      <c r="L26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="L26" s="6" t="s">
+      <c r="M26" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
+      <c r="O26" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
       <c r="G27" s="5"/>
-      <c r="I27" s="6" t="s">
+      <c r="H27" s="5"/>
+      <c r="J27" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="K27" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="K27" s="6" t="s">
+      <c r="L27" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L27" s="6" t="s">
+      <c r="M27" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N27" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
+      <c r="O27" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
       <c r="G28" s="5"/>
-      <c r="I28" s="6" t="s">
+      <c r="H28" s="5"/>
+      <c r="J28" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="J28" s="12" t="s">
+      <c r="K28" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="K28" s="6" t="s">
+      <c r="L28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L28" s="6" t="s">
+      <c r="M28" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N28" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
+      <c r="O28" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
       <c r="F29" s="5"/>
       <c r="G29" s="5"/>
-      <c r="I29" s="6" t="s">
+      <c r="H29" s="5"/>
+      <c r="J29" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J29" s="12"/>
-      <c r="K29" s="6" t="s">
+      <c r="K29" s="15"/>
+      <c r="L29" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="N29" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
+      <c r="O29" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="3"/>
+      <c r="J30" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="J30" s="12" t="s">
+      <c r="K30" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="K30" s="3">
+      <c r="L30" s="3">
         <v>111222333</v>
       </c>
-      <c r="L30" s="6" t="s">
+      <c r="M30" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="N30" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
+      <c r="O30" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
       <c r="G31" s="5"/>
-      <c r="I31" s="6" t="s">
+      <c r="H31" s="3"/>
+      <c r="J31" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="J31" s="12"/>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="15"/>
+      <c r="L31" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="L31" s="6" t="s">
+      <c r="M31" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="N31" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" ht="111" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="O31" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="D32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="H32" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="N32" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="J32" s="6"/>
+      <c r="O32" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="1" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
-      <c r="I33" s="6" t="s">
+      <c r="H33" s="3"/>
+      <c r="J33" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="K33" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="M33" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N33" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
+      <c r="O33" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="G34" s="3"/>
-      <c r="I34" s="6" t="s">
+      <c r="G34" s="2"/>
+      <c r="H34" s="3"/>
+      <c r="J34" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="K34" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="M34" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N34" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2"/>
+      <c r="O34" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
-      <c r="G35" s="3"/>
-      <c r="I35" s="6" t="s">
+      <c r="G35" s="2"/>
+      <c r="H35" s="3"/>
+      <c r="J35" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="K35" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="M35" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N35" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2"/>
+      <c r="O35" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
-      <c r="G36" s="3"/>
-      <c r="I36" s="6" t="s">
+      <c r="G36" s="2"/>
+      <c r="H36" s="3"/>
+      <c r="J36" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="K36" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="M36" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N36" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2"/>
+      <c r="O36" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
-      <c r="G37" s="3"/>
-      <c r="I37" s="6" t="s">
+      <c r="G37" s="2"/>
+      <c r="H37" s="3"/>
+      <c r="J37" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="K37" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="L37" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N37" s="11" t="b">
+      <c r="M37" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="O37" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O37" s="13" t="s">
+      <c r="P37" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2"/>
+    <row r="38" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="3"/>
-      <c r="I38" s="6" t="s">
+      <c r="G38" s="2"/>
+      <c r="H38" s="3"/>
+      <c r="J38" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="K38" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="L38" s="9" t="s">
+      <c r="M38" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="N38" s="11" t="b">
+      <c r="O38" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O38" s="13" t="s">
+      <c r="P38" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2"/>
+    <row r="39" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
-      <c r="G39" s="3"/>
-      <c r="I39" s="6" t="s">
+      <c r="G39" s="2"/>
+      <c r="H39" s="3"/>
+      <c r="J39" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="K39" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="M39" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N39" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
+      <c r="O39" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="13"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-      <c r="G40" s="3"/>
-      <c r="I40" s="6" t="s">
+      <c r="G40" s="2"/>
+      <c r="H40" s="3"/>
+      <c r="J40" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="K40" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="M40" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N40" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2"/>
+      <c r="O40" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="13"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
-      <c r="G41" s="3"/>
-      <c r="I41" s="6" t="s">
+      <c r="G41" s="2"/>
+      <c r="H41" s="3"/>
+      <c r="J41" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="K41" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="M41" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N41" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
+      <c r="O41" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A42" s="13"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
-      <c r="G42" s="3"/>
-      <c r="I42" s="6" t="s">
+      <c r="G42" s="2"/>
+      <c r="H42" s="3"/>
+      <c r="J42" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="K42" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="M42" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N42" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2"/>
+      <c r="O42" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="13"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="3"/>
-      <c r="I43" s="6" t="s">
+      <c r="G43" s="2"/>
+      <c r="H43" s="3"/>
+      <c r="J43" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="K43" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="M43" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N43" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2"/>
+      <c r="O43" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="13"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="3"/>
-      <c r="I44" s="6" t="s">
+      <c r="G44" s="2"/>
+      <c r="H44" s="3"/>
+      <c r="J44" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="K44" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="M44" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N44" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2"/>
+      <c r="O44" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="13"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
-      <c r="G45" s="3"/>
-      <c r="I45" s="6" t="s">
+      <c r="G45" s="2"/>
+      <c r="H45" s="3"/>
+      <c r="J45" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="K45" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="M45" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N45" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2"/>
+      <c r="O45" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="13"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
-      <c r="G46" s="3"/>
-      <c r="I46" s="6" t="s">
+      <c r="G46" s="2"/>
+      <c r="H46" s="3"/>
+      <c r="J46" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="K46" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L46" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="N46" s="11" t="b">
+      <c r="M46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="O46" s="9" t="b">
         <v>0</v>
       </c>
-      <c r="O46" s="13" t="s">
+      <c r="P46" s="10" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2"/>
+    <row r="47" spans="1:16" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="13"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
-      <c r="G47" s="3"/>
-      <c r="I47" s="6" t="s">
+      <c r="F47" s="2"/>
+      <c r="H47" s="3"/>
+      <c r="J47" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="J47" s="1" t="s">
+      <c r="K47" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="L47" s="9" t="s">
+      <c r="M47" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="N47" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+      <c r="O47" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="13"/>
+      <c r="B48" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="C48" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="D48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="F48" s="2" t="s">
+      <c r="G48" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="H48" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="H48" s="10"/>
-      <c r="I48" s="6"/>
-      <c r="N48" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
+      <c r="I48" s="12"/>
+      <c r="J48" s="6"/>
+      <c r="O48" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="13"/>
+      <c r="B49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C49" s="2" t="s">
+      <c r="D49" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E49" s="2" t="s">
+      <c r="F49" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="G49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="H49" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I49" s="2" t="s">
+      <c r="J49" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="J49" s="6" t="s">
+      <c r="K49" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="L49" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N49" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A50" s="2"/>
+      <c r="O49" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A50" s="13"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
-      <c r="G50" s="3"/>
-      <c r="I50" t="s">
+      <c r="G50" s="2"/>
+      <c r="H50" s="3"/>
+      <c r="J50" t="s">
         <v>181</v>
       </c>
-      <c r="J50" s="6" t="s">
+      <c r="K50" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="K50" s="3">
+      <c r="L50" s="3">
         <v>98020210105</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="M50" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="N50" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A51" s="2"/>
+      <c r="O50" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="13"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
-      <c r="G51" s="3"/>
-      <c r="I51" s="2" t="s">
+      <c r="G51" s="2"/>
+      <c r="H51" s="3"/>
+      <c r="J51" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J51" s="6" t="s">
+      <c r="K51" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="L51" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="M51" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N51" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A52" s="2"/>
+      <c r="O51" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A52" s="13"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
-      <c r="G52" s="3"/>
-      <c r="I52" t="s">
+      <c r="G52" s="2"/>
+      <c r="H52" s="3"/>
+      <c r="J52" t="s">
         <v>183</v>
       </c>
-      <c r="J52" s="6" t="s">
+      <c r="K52" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="L52" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="M52" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="N52" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+      <c r="O52" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A53" s="13"/>
+      <c r="B53" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="D53" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D53" s="2" t="s">
+      <c r="E53" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="G53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G53" s="3" t="s">
+      <c r="H53" s="3" t="s">
         <v>194</v>
       </c>
-      <c r="I53" s="6" t="s">
+      <c r="J53" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="J53" s="6" t="s">
+      <c r="K53" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="L53" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="M53" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="N53" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+      <c r="O53" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="13"/>
+      <c r="B54" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C54" s="2" t="s">
+      <c r="D54" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="E54" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="G54" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G54" s="3" t="s">
+      <c r="H54" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="I54" s="6" t="s">
+      <c r="J54" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="J54" s="6" t="s">
+      <c r="K54" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="L54" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="M54" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="N54" s="11" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14" ht="144" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+      <c r="O54" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="144" x14ac:dyDescent="0.3">
+      <c r="A55" s="13"/>
+      <c r="B55" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="E55" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="G55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G55" s="3" t="s">
+      <c r="H55" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="I55" s="6" t="s">
+      <c r="J55" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="J55" s="6" t="s">
+      <c r="K55" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="L55" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="L55" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="N55" s="11" t="b">
-        <v>1</v>
+      <c r="M55" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="O55" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="13">
+        <v>2</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J56" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="K56" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="O56" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="230.4" x14ac:dyDescent="0.3">
+      <c r="A57" s="13"/>
+      <c r="B57" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E57" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="H57" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="I57" s="3"/>
+      <c r="J57" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="K57" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="L57" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O57" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="15"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="15"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="I58" s="3"/>
+      <c r="J58" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="K58" s="15"/>
+      <c r="L58" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="O58" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H59" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="J59" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="M59" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="O59" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="J60" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M60" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="O60" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="H61" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="J61" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="K61" s="6" t="s">
+        <v>237</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="O61" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" ht="98.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="13"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="H62" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="J62" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="O62" s="9" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="B63" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H63" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J63" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K63" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="M63" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O63" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="J64" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K64" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O64" s="9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="10:15" ht="72" x14ac:dyDescent="0.3">
+      <c r="J65" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="K65" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M65" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="O65" s="9" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="J25:J26"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J30:J31"/>
+  <mergeCells count="14">
+    <mergeCell ref="C57:C62"/>
+    <mergeCell ref="B57:B62"/>
+    <mergeCell ref="A56:A62"/>
+    <mergeCell ref="A2:A55"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="K25:K26"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="K57:K58"/>
+    <mergeCell ref="D57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="G57:G58"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
